--- a/Fall 2021/Classifiers October 2021/Classifiers using updated samples/1 Year Experiments/Surface Area Only/With Pre-training/Labels.xlsx
+++ b/Fall 2021/Classifiers October 2021/Classifiers using updated samples/1 Year Experiments/Surface Area Only/With Pre-training/Labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CONTE 1y Labels" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="TWIN 2y Labels" sheetId="5" r:id="rId4"/>
     <sheet name="Interpolated CTSA1y Labels" sheetId="2" r:id="rId5"/>
     <sheet name="Interpolated CTSA 2y Labels" sheetId="6" r:id="rId6"/>
+    <sheet name="Temp CTSA1y Labels" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="669">
   <si>
     <t>C0011-2-1</t>
   </si>
@@ -33156,7 +33157,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33555,7 +33556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -33971,4 +33972,250 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>